--- a/raw_data/unifying_column_names.xlsx
+++ b/raw_data/unifying_column_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herrmannV\Dropbox (Smithsonian)\GitHub\SCBI-ForestGEO\SCBImortality\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAAC225-4A0F-4632-8ACB-990D801B1974}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E814404-945F-451D-81DA-7DC4CFB0FC2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9ACB84A1-0168-48EE-93D2-52DACEF4534B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
   <si>
     <t>as</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>liana.load **same scale?**</t>
-  </si>
-  <si>
-    <t>**de.count?**</t>
   </si>
   <si>
     <t>**?**</t>
@@ -660,15 +657,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5D15AF-7CDB-4974-BBA6-3A77BDD4939A}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -704,10 +701,10 @@
         <v>77</v>
       </c>
       <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
         <v>85</v>
-      </c>
-      <c r="L1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -739,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -771,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -867,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -969,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1001,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1033,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1196,7 +1193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1225,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1257,10 +1254,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="L18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1289,10 +1289,10 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1513,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1577,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -1833,7 +1833,13 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>88</v>
+      </c>
+      <c r="K36" t="s">
+        <v>86</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -1899,6 +1905,12 @@
       <c r="J38" t="s">
         <v>36</v>
       </c>
+      <c r="K38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L38" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
@@ -1931,6 +1943,12 @@
       <c r="J39" t="s">
         <v>80</v>
       </c>
+      <c r="K39" t="s">
+        <v>86</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
@@ -2095,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -2133,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -2171,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -2203,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -2235,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -2267,10 +2285,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K49">
         <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -2305,7 +2326,7 @@
         <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -2343,10 +2364,10 @@
         <v>49</v>
       </c>
       <c r="K51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -2378,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -2416,10 +2437,10 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -2489,10 +2510,10 @@
         <v>53</v>
       </c>
       <c r="K55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -2562,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -2856,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -2891,10 +2912,10 @@
         <v>65</v>
       </c>
       <c r="K67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -2961,10 +2982,10 @@
         <v>67</v>
       </c>
       <c r="K69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -2999,7 +3020,7 @@
         <v>67</v>
       </c>
       <c r="K70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -3040,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -3075,10 +3096,10 @@
         <v>70</v>
       </c>
       <c r="K72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -3110,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -3142,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -3206,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -3244,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -3282,13 +3303,13 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/unifying_column_names.xlsx
+++ b/raw_data/unifying_column_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herrmannV\Dropbox (Smithsonian)\GitHub\SCBI-ForestGEO\SCBImortality\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E814404-945F-451D-81DA-7DC4CFB0FC2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D50D958-7DDB-4533-8B66-6936CB3C38C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9ACB84A1-0168-48EE-93D2-52DACEF4534B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="90">
   <si>
     <t>as</t>
   </si>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5D15AF-7CDB-4974-BBA6-3A77BDD4939A}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,6 +738,12 @@
       <c r="J2" t="s">
         <v>88</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1224,6 +1230,12 @@
       <c r="J17" t="s">
         <v>88</v>
       </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -1352,9 +1364,6 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -2585,6 +2594,12 @@
       <c r="J57" t="s">
         <v>88</v>
       </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -3133,6 +3148,12 @@
       <c r="J73" t="s">
         <v>88</v>
       </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -3164,6 +3185,12 @@
       </c>
       <c r="J74" t="s">
         <v>88</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">

--- a/raw_data/unifying_column_names.xlsx
+++ b/raw_data/unifying_column_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herrmannV\Dropbox (Smithsonian)\GitHub\SCBI-ForestGEO\SCBImortality\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D50D958-7DDB-4533-8B66-6936CB3C38C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBACC89-620A-499F-A3A1-8040631C0247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9ACB84A1-0168-48EE-93D2-52DACEF4534B}"/>
   </bookViews>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5D15AF-7CDB-4974-BBA6-3A77BDD4939A}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
